--- a/5. 유전 시스템/수치 유전공식.xlsx
+++ b/5. 유전 시스템/수치 유전공식.xlsx
@@ -15,119 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
-  <si>
-    <t>a + 1 = P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 2 = P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 3 = P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘(P)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤 ▶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤 ▶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민첩(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력(M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a - 1 = M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a - 1 = S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 1 = S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 2 = S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 3 = S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a - 1 = I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 1 = I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 2 = I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 3 = I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 0 = M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 2 = M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 3 = M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 1 = M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 0 = S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 0 = I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a + 0 = P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a - 1 = P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(부 + 모) X 0.5 = a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 능력치에 해당하는 부모의 능력치를 공식에 대입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -156,6 +44,126 @@
   </si>
   <si>
     <t>랜덤으로 5가지 공식 중 하나를 적용하여 자식에게 수치를 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력(Mana)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능(Int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘(Power)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민첩(Speed)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 능력치에 해당하는 부모의 평균치를 구하여 랜덤 공식에 대입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>('부 Power' + '모 Power') X 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 평균치 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 랜텀 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' -1 을 계산하여 Power 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +0 을 계산하여 Power 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +1 을 계산하여 Power 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +2 을 계산하여 Power 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +3 을 계산하여 Power 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' -1 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +0 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +1 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +2 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +3 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' -1 을 계산하여 Speed 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +0 을 계산하여 Speed 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +1 을 계산하여 Speed 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +2 을 계산하여 Speed 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +3 을 계산하여 Speed 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' -1 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +0 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +1 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +2 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +3 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치 계산 후 랜덤 식 중 1곳에 대입하여 자식의 능력치를 결정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 평균치 식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,10 +273,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,239 +586,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="56.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="E5" s="7"/>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="2"/>
-      <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="5"/>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
+      <c r="E21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="7"/>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" t="s">
-        <v>23</v>
+      <c r="E26" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" t="s">
-        <v>15</v>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" t="s">
-        <v>16</v>
+      <c r="E28" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="7"/>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
+      <c r="E29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E25:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5. 유전 시스템/수치 유전공식.xlsx
+++ b/5. 유전 시스템/수치 유전공식.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -99,6 +99,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>평균치' +1 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +2 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +3 을 계산하여 Mana 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +1 을 계산하여 Speed 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +3 을 계산하여 Speed 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +0 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +1 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +2 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치' +3 을 계산하여 Int 수치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균치 계산 후 랜덤 식 중 1곳에 대입하여 자식의 능력치를 결정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 평균치 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>평균치' -1 을 계산하여 Mana 수치 결정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,15 +151,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평균치' +1 을 계산하여 Mana 수치 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균치' +2 을 계산하여 Mana 수치 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균치' +3 을 계산하여 Mana 수치 결정</t>
+    <t>('부 Mana' + '모 Mana') X 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,7 +163,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평균치' +1 을 계산하여 Speed 수치 결정</t>
+    <t>('부 Speed' + '모 Speed') X 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,35 +171,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평균치' +3 을 계산하여 Speed 수치 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평균치' -1 을 계산하여 Int 수치 결정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평균치' +0 을 계산하여 Int 수치 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균치' +1 을 계산하여 Int 수치 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균치' +2 을 계산하여 Int 수치 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균치' +3 을 계산하여 Int 수치 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균치 계산 후 랜덤 식 중 1곳에 대입하여 자식의 능력치를 결정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 평균치 식</t>
+    <t>('부 Int' + '모 Int') X 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +650,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
@@ -691,20 +703,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -712,7 +724,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -720,7 +732,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -728,7 +740,7 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -750,20 +762,20 @@
         <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
@@ -771,7 +783,7 @@
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
@@ -779,14 +791,14 @@
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D20" s="5"/>
       <c r="E20" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
       <c r="E21" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F21" s="6"/>
     </row>
@@ -796,7 +808,7 @@
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D23" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>9</v>
@@ -808,38 +820,38 @@
         <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E26" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D28" s="5"/>
       <c r="E28" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
